--- a/ClasseurTest.xlsx
+++ b/ClasseurTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nabil\Desktop\autoit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nabil\Desktop\AutoIt-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168CC4AB-E825-4770-9AFD-E4980A556C89}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9681B322-D4BB-4C5E-802F-431A9E84BE0E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{0D519D02-862D-4BDF-AD38-F39CCEAE3ABE}"/>
   </bookViews>
@@ -384,94 +384,94 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="B1">
         <v>100000100</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>100000201</v>
       </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B3">
         <v>100000301</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>100000401</v>
       </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B5">
         <v>100000501</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
         <v>100000601</v>
       </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B7">
         <v>100000701</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
         <v>100000801</v>
       </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B9">
         <v>100000901</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
         <v>100001001</v>
       </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
         <v>100001101</v>
       </c>
-      <c r="F11" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
         <v>100001201</v>
       </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B13">
         <v>100001301</v>
       </c>
     </row>
